--- a/TestData/JTPS-DEVQA/AccountTypes.xlsx
+++ b/TestData/JTPS-DEVQA/AccountTypes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
   </bookViews>
   <sheets>
-    <sheet name="ChargeBasisTypes" sheetId="1" r:id="rId1"/>
+    <sheet name="AccountTypes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="118">
   <si>
     <t>EOF</t>
   </si>
@@ -395,10 +395,13 @@
     <t>&amp;</t>
   </si>
   <si>
-    <t>allrows,value^&amp;,Description^Automation,short description^Automation,Bank Account Type^Automation</t>
-  </si>
-  <si>
-    <t>elm_bankAccountType</t>
+    <t>txt_bankAccountType</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>allrows,value^&amp;,Description^Automation,short description^Automation,Bank Account Type^AUTO</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1176,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>106</v>
@@ -1850,7 +1853,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>8</v>
@@ -1896,7 +1899,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
@@ -1942,7 +1945,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>54</v>
@@ -1984,7 +1987,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
@@ -2029,7 +2032,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>10</v>
@@ -2075,7 +2078,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>8</v>
@@ -2770,7 +2773,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="12" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>3</v>
@@ -2782,7 +2785,7 @@
         <v>110</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -3068,10 +3071,18 @@
       <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3101,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -3444,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>7</v>
@@ -3458,7 +3469,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="12" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>3</v>
@@ -3470,7 +3481,7 @@
         <v>110</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3481,7 +3492,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
@@ -3490,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>7</v>
@@ -3499,12 +3510,12 @@
         <v>6</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="12" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -3516,7 +3527,7 @@
         <v>110</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -3527,7 +3538,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
@@ -3536,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>7</v>
@@ -3545,12 +3556,12 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>3</v>
@@ -3562,7 +3573,7 @@
         <v>110</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -3582,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>7</v>
@@ -3593,10 +3604,10 @@
       <c r="I56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18" t="s">
-        <v>111</v>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>3</v>
@@ -3604,17 +3615,17 @@
       <c r="N56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
+      <c r="O56" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="3"/>
@@ -3639,10 +3650,10 @@
       <c r="I57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="17" t="s">
-        <v>21</v>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -3674,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>7</v>
@@ -3687,8 +3698,8 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="12" t="s">
-        <v>4</v>
+      <c r="L58" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3696,17 +3707,17 @@
       <c r="N58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
+      <c r="O58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="3"/>
@@ -3729,12 +3740,12 @@
         <v>6</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="12">
-        <v>1</v>
+      <c r="L59" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3742,8 +3753,12 @@
       <c r="N59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="11"/>
+      <c r="O59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
@@ -3762,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>7</v>
@@ -3771,12 +3786,12 @@
         <v>6</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="12" t="s">
-        <v>4</v>
+      <c r="L60" s="12">
+        <v>1</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -3784,12 +3799,8 @@
       <c r="N60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="O60" s="10"/>
+      <c r="P60" s="11"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
@@ -3821,8 +3832,8 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="19" t="s">
-        <v>108</v>
+      <c r="L61" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>3</v>
@@ -3854,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>7</v>
@@ -3867,8 +3878,8 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="12" t="s">
-        <v>4</v>
+      <c r="L62" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3880,7 +3891,7 @@
         <v>110</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -3900,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>7</v>
@@ -3909,12 +3920,12 @@
         <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="15" t="s">
-        <v>23</v>
+      <c r="L63" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3926,7 +3937,7 @@
         <v>110</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -3972,7 +3983,7 @@
         <v>110</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
@@ -3992,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>7</v>
@@ -4001,12 +4012,12 @@
         <v>6</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="12" t="s">
-        <v>4</v>
+      <c r="L65" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>3</v>
@@ -4018,7 +4029,7 @@
         <v>110</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -4038,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>7</v>
@@ -4051,8 +4062,8 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="18" t="s">
-        <v>111</v>
+      <c r="L66" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -4060,17 +4071,17 @@
       <c r="N66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
+      <c r="O66" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="3"/>
@@ -4097,8 +4108,8 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="17" t="s">
-        <v>21</v>
+      <c r="L67" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>3</v>
@@ -4130,7 +4141,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>7</v>
@@ -4143,8 +4154,8 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="15" t="s">
-        <v>25</v>
+      <c r="L68" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>3</v>
@@ -4152,17 +4163,17 @@
       <c r="N68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O68" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
+      <c r="O68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="3"/>
@@ -4170,13 +4181,13 @@
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>7</v>
@@ -4189,8 +4200,8 @@
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="12" t="s">
-        <v>4</v>
+      <c r="L69" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>3</v>
@@ -4202,7 +4213,7 @@
         <v>110</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4216,13 +4227,13 @@
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="13"/>
       <c r="E70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>7</v>
@@ -4231,12 +4242,12 @@
         <v>6</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="15" t="s">
-        <v>26</v>
+      <c r="L70" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>3</v>
@@ -4247,12 +4258,14 @@
       <c r="O70" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
+      <c r="P70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="3"/>
@@ -4266,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>7</v>
@@ -4275,12 +4288,12 @@
         <v>6</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="18" t="s">
-        <v>111</v>
+      <c r="L71" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>3</v>
@@ -4288,12 +4301,10 @@
       <c r="N71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="O71" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P71" s="10"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -4325,8 +4336,8 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="17" t="s">
-        <v>21</v>
+      <c r="L72" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -4371,8 +4382,8 @@
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="15" t="s">
-        <v>25</v>
+      <c r="L73" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>3</v>
@@ -4380,17 +4391,17 @@
       <c r="N73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O73" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
+      <c r="O73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="3"/>
@@ -4404,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>7</v>
@@ -4417,8 +4428,8 @@
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="12" t="s">
-        <v>4</v>
+      <c r="L74" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>3</v>
@@ -4430,7 +4441,7 @@
         <v>110</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
@@ -4459,12 +4470,12 @@
         <v>6</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="12" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>3</v>
@@ -4473,9 +4484,11 @@
         <v>2</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P75" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
@@ -4494,7 +4507,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>7</v>
@@ -4503,12 +4516,12 @@
         <v>6</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -4517,11 +4530,9 @@
         <v>2</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P76" s="11" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P76" s="11"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
@@ -4529,7 +4540,7 @@
       <c r="U76" s="10"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="9"/>
+      <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -4540,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>7</v>
@@ -4553,8 +4564,8 @@
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="18" t="s">
-        <v>111</v>
+      <c r="L77" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>3</v>
@@ -4562,17 +4573,17 @@
       <c r="N77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
+      <c r="O77" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="9"/>
@@ -4599,8 +4610,8 @@
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="17" t="s">
-        <v>21</v>
+      <c r="L78" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>3</v>
@@ -4632,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>7</v>
@@ -4641,12 +4652,12 @@
         <v>6</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="15" t="s">
-        <v>17</v>
+      <c r="L79" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>3</v>
@@ -4654,17 +4665,17 @@
       <c r="N79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O79" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P79" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
+      <c r="O79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="9"/>
@@ -4687,12 +4698,12 @@
         <v>6</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="14" t="s">
-        <v>113</v>
+      <c r="L80" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>3</v>
@@ -4704,7 +4715,7 @@
         <v>110</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
@@ -4724,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>7</v>
@@ -4733,12 +4744,12 @@
         <v>6</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="12" t="s">
-        <v>4</v>
+      <c r="L81" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -4750,7 +4761,7 @@
         <v>110</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
@@ -4779,12 +4790,12 @@
         <v>6</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="35">
-        <v>1</v>
+      <c r="L82" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>3</v>
@@ -4792,13 +4803,17 @@
       <c r="N82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O82" s="32"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
+      <c r="O82" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="9"/>
@@ -4821,11 +4836,12 @@
         <v>6</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="12" t="s">
-        <v>4</v>
+      <c r="L83" s="35">
+        <v>1</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4833,17 +4849,13 @@
       <c r="N83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O83" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="9"/>
@@ -4857,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>7</v>
@@ -4868,7 +4880,6 @@
       <c r="I84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="12" t="s">
         <v>4</v>
@@ -4879,20 +4890,20 @@
       <c r="N84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O84" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
+      <c r="O84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="3"/>
+      <c r="X84" s="9"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -4903,7 +4914,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>7</v>
@@ -4929,7 +4940,7 @@
         <v>110</v>
       </c>
       <c r="P85" s="11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
@@ -4938,7 +4949,7 @@
       <c r="U85" s="10"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="3"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
@@ -4972,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="O86" s="10" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="P86" s="11" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
@@ -4987,76 +4998,122 @@
       <c r="X86" s="9"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="9"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G88" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O87" s="3" t="s">
+      <c r="O88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q87" s="2" t="s">
+      <c r="Q88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="R88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S87" s="2" t="s">
+      <c r="S88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T87" s="2" t="s">
+      <c r="T88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U87" s="2" t="s">
+      <c r="U88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V87" s="2" t="s">
+      <c r="V88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W87" s="2" t="s">
+      <c r="W88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X87" s="2" t="s">
+      <c r="X88" s="2" t="s">
         <v>0</v>
       </c>
     </row>
